--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Flt3l-Flt3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Flt3l-Flt3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.795774333333334</v>
+        <v>5.263135333333333</v>
       </c>
       <c r="H2">
-        <v>17.387323</v>
+        <v>15.789406</v>
       </c>
       <c r="I2">
-        <v>0.2166180251727471</v>
+        <v>0.2303701491617479</v>
       </c>
       <c r="J2">
-        <v>0.2166180251727471</v>
+        <v>0.2303701491617479</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.181145333333333</v>
+        <v>0.008186000000000001</v>
       </c>
       <c r="N2">
-        <v>3.543436</v>
+        <v>0.024558</v>
       </c>
       <c r="O2">
-        <v>0.1469875775727626</v>
+        <v>0.001522939343629143</v>
       </c>
       <c r="P2">
-        <v>0.1469875775727626</v>
+        <v>0.001522939343629143</v>
       </c>
       <c r="Q2">
-        <v>6.845651806869779</v>
+        <v>0.04308402583866667</v>
       </c>
       <c r="R2">
-        <v>61.61086626182801</v>
+        <v>0.387756232548</v>
       </c>
       <c r="S2">
-        <v>0.0318401587787378</v>
+        <v>0.0003508397637561402</v>
       </c>
       <c r="T2">
-        <v>0.0318401587787378</v>
+        <v>0.00035083976375614</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.795774333333334</v>
+        <v>5.263135333333333</v>
       </c>
       <c r="H3">
-        <v>17.387323</v>
+        <v>15.789406</v>
       </c>
       <c r="I3">
-        <v>0.2166180251727471</v>
+        <v>0.2303701491617479</v>
       </c>
       <c r="J3">
-        <v>0.2166180251727471</v>
+        <v>0.2303701491617479</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.731584666666667</v>
+        <v>1.736781333333333</v>
       </c>
       <c r="N3">
-        <v>5.194754</v>
+        <v>5.210344</v>
       </c>
       <c r="O3">
-        <v>0.2154869755080714</v>
+        <v>0.3231141734441747</v>
       </c>
       <c r="P3">
-        <v>0.2154869755080714</v>
+        <v>0.3231141734441747</v>
       </c>
       <c r="Q3">
-        <v>10.03587396706022</v>
+        <v>9.140915201740444</v>
       </c>
       <c r="R3">
-        <v>90.32286570354201</v>
+        <v>82.268236815664</v>
       </c>
       <c r="S3">
-        <v>0.04667836308500656</v>
+        <v>0.07443586033260942</v>
       </c>
       <c r="T3">
-        <v>0.04667836308500656</v>
+        <v>0.07443586033260942</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.795774333333334</v>
+        <v>5.263135333333333</v>
       </c>
       <c r="H4">
-        <v>17.387323</v>
+        <v>15.789406</v>
       </c>
       <c r="I4">
-        <v>0.2166180251727471</v>
+        <v>0.2303701491617479</v>
       </c>
       <c r="J4">
-        <v>0.2166180251727471</v>
+        <v>0.2303701491617479</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,33 +685,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.122951333333333</v>
+        <v>3.006121333333333</v>
       </c>
       <c r="N4">
-        <v>15.368854</v>
+        <v>9.018364</v>
       </c>
       <c r="O4">
-        <v>0.637525446919166</v>
+        <v>0.5592646530975116</v>
       </c>
       <c r="P4">
-        <v>0.637525446919166</v>
+        <v>0.5592646530975116</v>
       </c>
       <c r="Q4">
-        <v>29.69146984864911</v>
+        <v>15.82162340575378</v>
       </c>
       <c r="R4">
-        <v>267.223228637842</v>
+        <v>142.394610651784</v>
       </c>
       <c r="S4">
-        <v>0.1380995033090028</v>
+        <v>0.128837881554967</v>
       </c>
       <c r="T4">
-        <v>0.1380995033090028</v>
+        <v>0.1288378815549669</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.872962999999999</v>
+        <v>5.263135333333333</v>
       </c>
       <c r="H5">
-        <v>14.618889</v>
+        <v>15.789406</v>
       </c>
       <c r="I5">
-        <v>0.1821277988221416</v>
+        <v>0.2303701491617479</v>
       </c>
       <c r="J5">
-        <v>0.1821277988221416</v>
+        <v>0.2303701491617479</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.181145333333333</v>
+        <v>0.6240433333333333</v>
       </c>
       <c r="N5">
-        <v>3.543436</v>
+        <v>1.87213</v>
       </c>
       <c r="O5">
-        <v>0.1469875775727626</v>
+        <v>0.1160982341146847</v>
       </c>
       <c r="P5">
-        <v>0.1469875775727626</v>
+        <v>0.1160982341146847</v>
       </c>
       <c r="Q5">
-        <v>5.755677506956</v>
+        <v>3.284424517197778</v>
       </c>
       <c r="R5">
-        <v>51.801097562604</v>
+        <v>29.55982065478</v>
       </c>
       <c r="S5">
-        <v>0.02677052395752603</v>
+        <v>0.02674556751041545</v>
       </c>
       <c r="T5">
-        <v>0.02677052395752603</v>
+        <v>0.02674556751041544</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,40 +797,40 @@
         <v>14.618889</v>
       </c>
       <c r="I6">
-        <v>0.1821277988221416</v>
+        <v>0.2132921048143949</v>
       </c>
       <c r="J6">
-        <v>0.1821277988221416</v>
+        <v>0.2132921048143949</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.731584666666667</v>
+        <v>0.008186000000000001</v>
       </c>
       <c r="N6">
-        <v>5.194754</v>
+        <v>0.024558</v>
       </c>
       <c r="O6">
-        <v>0.2154869755080714</v>
+        <v>0.001522939343629143</v>
       </c>
       <c r="P6">
-        <v>0.2154869755080714</v>
+        <v>0.001522939343629143</v>
       </c>
       <c r="Q6">
-        <v>8.437948012033999</v>
+        <v>0.039890075118</v>
       </c>
       <c r="R6">
-        <v>75.94153210830599</v>
+        <v>0.359010676062</v>
       </c>
       <c r="S6">
-        <v>0.03924616852412578</v>
+        <v>0.0003248309381073129</v>
       </c>
       <c r="T6">
-        <v>0.03924616852412578</v>
+        <v>0.0003248309381073129</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>14.618889</v>
       </c>
       <c r="I7">
-        <v>0.1821277988221416</v>
+        <v>0.2132921048143949</v>
       </c>
       <c r="J7">
-        <v>0.1821277988221416</v>
+        <v>0.2132921048143949</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,33 +871,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.122951333333333</v>
+        <v>1.736781333333333</v>
       </c>
       <c r="N7">
-        <v>15.368854</v>
+        <v>5.210344</v>
       </c>
       <c r="O7">
-        <v>0.637525446919166</v>
+        <v>0.3231141734441747</v>
       </c>
       <c r="P7">
-        <v>0.637525446919166</v>
+        <v>0.3231141734441747</v>
       </c>
       <c r="Q7">
-        <v>24.963952298134</v>
+        <v>8.463271176424</v>
       </c>
       <c r="R7">
-        <v>224.675570683206</v>
+        <v>76.169440587816</v>
       </c>
       <c r="S7">
-        <v>0.1161111063404898</v>
+        <v>0.06891770214927148</v>
       </c>
       <c r="T7">
-        <v>0.1161111063404898</v>
+        <v>0.0689177021492715</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.523564</v>
+        <v>4.872962999999999</v>
       </c>
       <c r="H8">
-        <v>13.570692</v>
+        <v>14.618889</v>
       </c>
       <c r="I8">
-        <v>0.1690689533557062</v>
+        <v>0.2132921048143949</v>
       </c>
       <c r="J8">
-        <v>0.1690689533557062</v>
+        <v>0.2132921048143949</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,33 +933,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.181145333333333</v>
+        <v>3.006121333333333</v>
       </c>
       <c r="N8">
-        <v>3.543436</v>
+        <v>9.018364</v>
       </c>
       <c r="O8">
-        <v>0.1469875775727626</v>
+        <v>0.5592646530975116</v>
       </c>
       <c r="P8">
-        <v>0.1469875775727626</v>
+        <v>0.5592646530975116</v>
       </c>
       <c r="Q8">
-        <v>5.342986508634668</v>
+        <v>14.648718030844</v>
       </c>
       <c r="R8">
-        <v>48.08687857771201</v>
+        <v>131.838462277596</v>
       </c>
       <c r="S8">
-        <v>0.02485103589651764</v>
+        <v>0.1192867350074606</v>
       </c>
       <c r="T8">
-        <v>0.02485103589651764</v>
+        <v>0.1192867350074607</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.523564</v>
+        <v>4.872962999999999</v>
       </c>
       <c r="H9">
-        <v>13.570692</v>
+        <v>14.618889</v>
       </c>
       <c r="I9">
-        <v>0.1690689533557062</v>
+        <v>0.2132921048143949</v>
       </c>
       <c r="J9">
-        <v>0.1690689533557062</v>
+        <v>0.2132921048143949</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.731584666666667</v>
+        <v>0.6240433333333333</v>
       </c>
       <c r="N9">
-        <v>5.194754</v>
+        <v>1.87213</v>
       </c>
       <c r="O9">
-        <v>0.2154869755080714</v>
+        <v>0.1160982341146847</v>
       </c>
       <c r="P9">
-        <v>0.2154869755080714</v>
+        <v>0.1160982341146847</v>
       </c>
       <c r="Q9">
-        <v>7.832934061085333</v>
+        <v>3.040940073729999</v>
       </c>
       <c r="R9">
-        <v>70.496406549768</v>
+        <v>27.36846066357</v>
       </c>
       <c r="S9">
-        <v>0.03643215741093633</v>
+        <v>0.02476283671955549</v>
       </c>
       <c r="T9">
-        <v>0.03643215741093633</v>
+        <v>0.02476283671955549</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.523564</v>
+        <v>3.469132666666667</v>
       </c>
       <c r="H10">
-        <v>13.570692</v>
+        <v>10.407398</v>
       </c>
       <c r="I10">
-        <v>0.1690689533557062</v>
+        <v>0.1518457267895751</v>
       </c>
       <c r="J10">
-        <v>0.1690689533557062</v>
+        <v>0.1518457267895751</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>5.122951333333333</v>
+        <v>0.008186000000000001</v>
       </c>
       <c r="N10">
-        <v>15.368854</v>
+        <v>0.024558</v>
       </c>
       <c r="O10">
-        <v>0.637525446919166</v>
+        <v>0.001522939343629143</v>
       </c>
       <c r="P10">
-        <v>0.637525446919166</v>
+        <v>0.001522939343629143</v>
       </c>
       <c r="Q10">
-        <v>23.17399822521867</v>
+        <v>0.02839832000933334</v>
       </c>
       <c r="R10">
-        <v>208.565984026968</v>
+        <v>0.255584880084</v>
       </c>
       <c r="S10">
-        <v>0.1077857600482522</v>
+        <v>0.0002312518314898056</v>
       </c>
       <c r="T10">
-        <v>0.1077857600482522</v>
+        <v>0.0002312518314898056</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.935718666666666</v>
+        <v>3.469132666666667</v>
       </c>
       <c r="H11">
-        <v>8.807155999999999</v>
+        <v>10.407398</v>
       </c>
       <c r="I11">
-        <v>0.1097229711617085</v>
+        <v>0.1518457267895751</v>
       </c>
       <c r="J11">
-        <v>0.1097229711617085</v>
+        <v>0.1518457267895751</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,33 +1119,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.181145333333333</v>
+        <v>1.736781333333333</v>
       </c>
       <c r="N11">
-        <v>3.543436</v>
+        <v>5.210344</v>
       </c>
       <c r="O11">
-        <v>0.1469875775727626</v>
+        <v>0.3231141734441747</v>
       </c>
       <c r="P11">
-        <v>0.1469875775727626</v>
+        <v>0.3231141734441747</v>
       </c>
       <c r="Q11">
-        <v>3.467510403112889</v>
+        <v>6.025124858323556</v>
       </c>
       <c r="R11">
-        <v>31.207593628016</v>
+        <v>54.22612372491201</v>
       </c>
       <c r="S11">
-        <v>0.01612791373514562</v>
+        <v>0.04906350650264352</v>
       </c>
       <c r="T11">
-        <v>0.01612791373514562</v>
+        <v>0.04906350650264352</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.935718666666666</v>
+        <v>3.469132666666667</v>
       </c>
       <c r="H12">
-        <v>8.807155999999999</v>
+        <v>10.407398</v>
       </c>
       <c r="I12">
-        <v>0.1097229711617085</v>
+        <v>0.1518457267895751</v>
       </c>
       <c r="J12">
-        <v>0.1097229711617085</v>
+        <v>0.1518457267895751</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,33 +1181,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.731584666666667</v>
+        <v>3.006121333333333</v>
       </c>
       <c r="N12">
-        <v>5.194754</v>
+        <v>9.018364</v>
       </c>
       <c r="O12">
-        <v>0.2154869755080714</v>
+        <v>0.5592646530975116</v>
       </c>
       <c r="P12">
-        <v>0.2154869755080714</v>
+        <v>0.5592646530975116</v>
       </c>
       <c r="Q12">
-        <v>5.08344542884711</v>
+        <v>10.42863371743022</v>
       </c>
       <c r="R12">
-        <v>45.75100885962399</v>
+        <v>93.857703456872</v>
       </c>
       <c r="S12">
-        <v>0.0236438711993959</v>
+        <v>0.08492194771731122</v>
       </c>
       <c r="T12">
-        <v>0.0236438711993959</v>
+        <v>0.08492194771731122</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.935718666666666</v>
+        <v>3.469132666666667</v>
       </c>
       <c r="H13">
-        <v>8.807155999999999</v>
+        <v>10.407398</v>
       </c>
       <c r="I13">
-        <v>0.1097229711617085</v>
+        <v>0.1518457267895751</v>
       </c>
       <c r="J13">
-        <v>0.1097229711617085</v>
+        <v>0.1518457267895751</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,33 +1243,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.122951333333333</v>
+        <v>0.6240433333333333</v>
       </c>
       <c r="N13">
-        <v>15.368854</v>
+        <v>1.87213</v>
       </c>
       <c r="O13">
-        <v>0.637525446919166</v>
+        <v>0.1160982341146847</v>
       </c>
       <c r="P13">
-        <v>0.637525446919166</v>
+        <v>0.1160982341146847</v>
       </c>
       <c r="Q13">
-        <v>15.03954385769155</v>
+        <v>2.164889113082222</v>
       </c>
       <c r="R13">
-        <v>135.355894719224</v>
+        <v>19.48400201774</v>
       </c>
       <c r="S13">
-        <v>0.06995118622716695</v>
+        <v>0.01762902073813053</v>
       </c>
       <c r="T13">
-        <v>0.06995118622716695</v>
+        <v>0.01762902073813053</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,51 +1287,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.600244</v>
+        <v>1.069278333333333</v>
       </c>
       <c r="H14">
-        <v>10.800732</v>
+        <v>3.207835</v>
       </c>
       <c r="I14">
-        <v>0.1345597155042265</v>
+        <v>0.04680286436590937</v>
       </c>
       <c r="J14">
-        <v>0.1345597155042266</v>
+        <v>0.04680286436590938</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>1.181145333333333</v>
+        <v>0.008186000000000001</v>
       </c>
       <c r="N14">
-        <v>3.543436</v>
+        <v>0.024558</v>
       </c>
       <c r="O14">
-        <v>0.1469875775727626</v>
+        <v>0.001522939343629143</v>
       </c>
       <c r="P14">
-        <v>0.1469875775727626</v>
+        <v>0.001522939343629143</v>
       </c>
       <c r="Q14">
-        <v>4.252411399461334</v>
+        <v>0.008753112436666667</v>
       </c>
       <c r="R14">
-        <v>38.271702595152</v>
+        <v>0.07877801193</v>
       </c>
       <c r="S14">
-        <v>0.01977860662084636</v>
+        <v>7.127792353738183E-05</v>
       </c>
       <c r="T14">
-        <v>0.01977860662084636</v>
+        <v>7.127792353738181E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.600244</v>
+        <v>1.069278333333333</v>
       </c>
       <c r="H15">
-        <v>10.800732</v>
+        <v>3.207835</v>
       </c>
       <c r="I15">
-        <v>0.1345597155042265</v>
+        <v>0.04680286436590937</v>
       </c>
       <c r="J15">
-        <v>0.1345597155042266</v>
+        <v>0.04680286436590938</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,43 +1367,43 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.731584666666667</v>
+        <v>1.736781333333333</v>
       </c>
       <c r="N15">
-        <v>5.194754</v>
+        <v>5.210344</v>
       </c>
       <c r="O15">
-        <v>0.2154869755080714</v>
+        <v>0.3231141734441747</v>
       </c>
       <c r="P15">
-        <v>0.2154869755080714</v>
+        <v>0.3231141734441747</v>
       </c>
       <c r="Q15">
-        <v>6.234127306658666</v>
+        <v>1.857102649471111</v>
       </c>
       <c r="R15">
-        <v>56.107145759928</v>
+        <v>16.71392384524</v>
       </c>
       <c r="S15">
-        <v>0.02899586611923232</v>
+        <v>0.01512266883441062</v>
       </c>
       <c r="T15">
-        <v>0.02899586611923233</v>
+        <v>0.01512266883441063</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.600244</v>
+        <v>1.069278333333333</v>
       </c>
       <c r="H16">
-        <v>10.800732</v>
+        <v>3.207835</v>
       </c>
       <c r="I16">
-        <v>0.1345597155042265</v>
+        <v>0.04680286436590937</v>
       </c>
       <c r="J16">
-        <v>0.1345597155042266</v>
+        <v>0.04680286436590938</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,43 +1429,43 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.122951333333333</v>
+        <v>3.006121333333333</v>
       </c>
       <c r="N16">
-        <v>15.368854</v>
+        <v>9.018364</v>
       </c>
       <c r="O16">
-        <v>0.637525446919166</v>
+        <v>0.5592646530975116</v>
       </c>
       <c r="P16">
-        <v>0.637525446919166</v>
+        <v>0.5592646530975116</v>
       </c>
       <c r="Q16">
-        <v>18.44387480012533</v>
+        <v>3.214380409104444</v>
       </c>
       <c r="R16">
-        <v>165.994873201128</v>
+        <v>28.92942368194</v>
       </c>
       <c r="S16">
-        <v>0.08578524276414787</v>
+        <v>0.02617518770357019</v>
       </c>
       <c r="T16">
-        <v>0.08578524276414788</v>
+        <v>0.0261751877035702</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
       <c r="E17">
         <v>3</v>
       </c>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.027470333333333</v>
+        <v>1.069278333333333</v>
       </c>
       <c r="H17">
-        <v>15.082411</v>
+        <v>3.207835</v>
       </c>
       <c r="I17">
-        <v>0.1879025359834701</v>
+        <v>0.04680286436590937</v>
       </c>
       <c r="J17">
-        <v>0.1879025359834701</v>
+        <v>0.04680286436590938</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.181145333333333</v>
+        <v>0.6240433333333333</v>
       </c>
       <c r="N17">
-        <v>3.543436</v>
+        <v>1.87213</v>
       </c>
       <c r="O17">
-        <v>0.1469875775727626</v>
+        <v>0.1160982341146847</v>
       </c>
       <c r="P17">
-        <v>0.1469875775727626</v>
+        <v>0.1160982341146847</v>
       </c>
       <c r="Q17">
-        <v>5.938173122688445</v>
+        <v>0.6672760153944444</v>
       </c>
       <c r="R17">
-        <v>53.44355810419601</v>
+        <v>6.00548413855</v>
       </c>
       <c r="S17">
-        <v>0.02761933858398912</v>
+        <v>0.00543372990439118</v>
       </c>
       <c r="T17">
-        <v>0.02761933858398912</v>
+        <v>0.005433729904391181</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,108 +1535,480 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.027470333333333</v>
+        <v>4.769508333333333</v>
       </c>
       <c r="H18">
-        <v>15.082411</v>
+        <v>14.308525</v>
       </c>
       <c r="I18">
-        <v>0.1879025359834701</v>
+        <v>0.208763840674855</v>
       </c>
       <c r="J18">
-        <v>0.1879025359834701</v>
+        <v>0.208763840674855</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>1.731584666666667</v>
+        <v>0.008186000000000001</v>
       </c>
       <c r="N18">
-        <v>5.194754</v>
+        <v>0.024558</v>
       </c>
       <c r="O18">
-        <v>0.2154869755080714</v>
+        <v>0.001522939343629143</v>
       </c>
       <c r="P18">
-        <v>0.2154869755080714</v>
+        <v>0.001522939343629143</v>
       </c>
       <c r="Q18">
-        <v>8.705490541321556</v>
+        <v>0.03904319521666667</v>
       </c>
       <c r="R18">
-        <v>78.349414871894</v>
+        <v>0.35138875695</v>
       </c>
       <c r="S18">
-        <v>0.04049054916937454</v>
+        <v>0.0003179346664908626</v>
       </c>
       <c r="T18">
-        <v>0.04049054916937454</v>
+        <v>0.0003179346664908626</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>4.769508333333333</v>
+      </c>
+      <c r="H19">
+        <v>14.308525</v>
+      </c>
+      <c r="I19">
+        <v>0.208763840674855</v>
+      </c>
+      <c r="J19">
+        <v>0.208763840674855</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.736781333333333</v>
+      </c>
+      <c r="N19">
+        <v>5.210344</v>
+      </c>
+      <c r="O19">
+        <v>0.3231141734441747</v>
+      </c>
+      <c r="P19">
+        <v>0.3231141734441747</v>
+      </c>
+      <c r="Q19">
+        <v>8.283593042511111</v>
+      </c>
+      <c r="R19">
+        <v>74.5523373826</v>
+      </c>
+      <c r="S19">
+        <v>0.06745455582468715</v>
+      </c>
+      <c r="T19">
+        <v>0.06745455582468715</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>4.769508333333333</v>
+      </c>
+      <c r="H20">
+        <v>14.308525</v>
+      </c>
+      <c r="I20">
+        <v>0.208763840674855</v>
+      </c>
+      <c r="J20">
+        <v>0.208763840674855</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>3.006121333333333</v>
+      </c>
+      <c r="N20">
+        <v>9.018364</v>
+      </c>
+      <c r="O20">
+        <v>0.5592646530975116</v>
+      </c>
+      <c r="P20">
+        <v>0.5592646530975116</v>
+      </c>
+      <c r="Q20">
+        <v>14.33772075034444</v>
+      </c>
+      <c r="R20">
+        <v>129.0394867531</v>
+      </c>
+      <c r="S20">
+        <v>0.116754236934327</v>
+      </c>
+      <c r="T20">
+        <v>0.116754236934327</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>4.769508333333333</v>
+      </c>
+      <c r="H21">
+        <v>14.308525</v>
+      </c>
+      <c r="I21">
+        <v>0.208763840674855</v>
+      </c>
+      <c r="J21">
+        <v>0.208763840674855</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.6240433333333333</v>
+      </c>
+      <c r="N21">
+        <v>1.87213</v>
+      </c>
+      <c r="O21">
+        <v>0.1160982341146847</v>
+      </c>
+      <c r="P21">
+        <v>0.1160982341146847</v>
+      </c>
+      <c r="Q21">
+        <v>2.976379878694444</v>
+      </c>
+      <c r="R21">
+        <v>26.78741890825</v>
+      </c>
+      <c r="S21">
+        <v>0.02423711324935005</v>
+      </c>
+      <c r="T21">
+        <v>0.02423711324935005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>5.027470333333333</v>
-      </c>
-      <c r="H19">
-        <v>15.082411</v>
-      </c>
-      <c r="I19">
-        <v>0.1879025359834701</v>
-      </c>
-      <c r="J19">
-        <v>0.1879025359834701</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>5.122951333333333</v>
-      </c>
-      <c r="N19">
-        <v>15.368854</v>
-      </c>
-      <c r="O19">
-        <v>0.637525446919166</v>
-      </c>
-      <c r="P19">
-        <v>0.637525446919166</v>
-      </c>
-      <c r="Q19">
-        <v>25.75548584744378</v>
-      </c>
-      <c r="R19">
-        <v>231.799372626994</v>
-      </c>
-      <c r="S19">
-        <v>0.1197926482301065</v>
-      </c>
-      <c r="T19">
-        <v>0.1197926482301065</v>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3.402411666666667</v>
+      </c>
+      <c r="H22">
+        <v>10.207235</v>
+      </c>
+      <c r="I22">
+        <v>0.1489253141935178</v>
+      </c>
+      <c r="J22">
+        <v>0.1489253141935178</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.008186000000000001</v>
+      </c>
+      <c r="N22">
+        <v>0.024558</v>
+      </c>
+      <c r="O22">
+        <v>0.001522939343629143</v>
+      </c>
+      <c r="P22">
+        <v>0.001522939343629143</v>
+      </c>
+      <c r="Q22">
+        <v>0.02785214190333334</v>
+      </c>
+      <c r="R22">
+        <v>0.25066927713</v>
+      </c>
+      <c r="S22">
+        <v>0.0002268042202476398</v>
+      </c>
+      <c r="T22">
+        <v>0.0002268042202476398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3.402411666666667</v>
+      </c>
+      <c r="H23">
+        <v>10.207235</v>
+      </c>
+      <c r="I23">
+        <v>0.1489253141935178</v>
+      </c>
+      <c r="J23">
+        <v>0.1489253141935178</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.736781333333333</v>
+      </c>
+      <c r="N23">
+        <v>5.210344</v>
+      </c>
+      <c r="O23">
+        <v>0.3231141734441747</v>
+      </c>
+      <c r="P23">
+        <v>0.3231141734441747</v>
+      </c>
+      <c r="Q23">
+        <v>5.909245070982223</v>
+      </c>
+      <c r="R23">
+        <v>53.18320563884001</v>
+      </c>
+      <c r="S23">
+        <v>0.04811987980055251</v>
+      </c>
+      <c r="T23">
+        <v>0.04811987980055251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3.402411666666667</v>
+      </c>
+      <c r="H24">
+        <v>10.207235</v>
+      </c>
+      <c r="I24">
+        <v>0.1489253141935178</v>
+      </c>
+      <c r="J24">
+        <v>0.1489253141935178</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>3.006121333333333</v>
+      </c>
+      <c r="N24">
+        <v>9.018364</v>
+      </c>
+      <c r="O24">
+        <v>0.5592646530975116</v>
+      </c>
+      <c r="P24">
+        <v>0.5592646530975116</v>
+      </c>
+      <c r="Q24">
+        <v>10.22806229594889</v>
+      </c>
+      <c r="R24">
+        <v>92.05256066354001</v>
+      </c>
+      <c r="S24">
+        <v>0.08328866417987563</v>
+      </c>
+      <c r="T24">
+        <v>0.08328866417987563</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.402411666666667</v>
+      </c>
+      <c r="H25">
+        <v>10.207235</v>
+      </c>
+      <c r="I25">
+        <v>0.1489253141935178</v>
+      </c>
+      <c r="J25">
+        <v>0.1489253141935178</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.6240433333333333</v>
+      </c>
+      <c r="N25">
+        <v>1.87213</v>
+      </c>
+      <c r="O25">
+        <v>0.1160982341146847</v>
+      </c>
+      <c r="P25">
+        <v>0.1160982341146847</v>
+      </c>
+      <c r="Q25">
+        <v>2.123252317838889</v>
+      </c>
+      <c r="R25">
+        <v>19.10927086055</v>
+      </c>
+      <c r="S25">
+        <v>0.017289965992842</v>
+      </c>
+      <c r="T25">
+        <v>0.017289965992842</v>
       </c>
     </row>
   </sheetData>
